--- a/biology/Botanique/Packera/Packera.xlsx
+++ b/biology/Botanique/Packera/Packera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Packera est un genre de plantes à fleurs de la famille des astéracées. Il compte environ 64[2] espèces. Ses membres étaient auparavant inclus dans le genre Senecio mais ils en ont été écartés en raison du nombre de chromosomes, d'une variété de caractères morphologiques et d'études de phylogénie moléculaire[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Packera est un genre de plantes à fleurs de la famille des astéracées. Il compte environ 64 espèces. Ses membres étaient auparavant inclus dans le genre Senecio mais ils en ont été écartés en raison du nombre de chromosomes, d'une variété de caractères morphologiques et d'études de phylogénie moléculaire.
 </t>
         </is>
       </c>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon NCBI  (7 août 2011)[3]
+          <t>Selon NCBI  (7 août 2011)[3]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Packera actinella
 Packera aurea
 Packera bernardina
@@ -553,7 +571,43 @@
 Packera tampicana
 Packera tomentosa
 Packera zimapanica
-Selon ITIS      (7 août 2011)[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Packera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Packera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (7 août 2011)[4]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Packera anonyma (Alph. Wood) W.A. Weber &amp; A. Löve
 Packera antennariifolia (Britton) W.A. Weber &amp; A. Löve
 Packera aurea (L.) Á. Löve &amp; D. Löve
